--- a/CPU-Logging-Dashboard/Logging-Service/Logs/cpu_ram_rdp_log_2025-10-17_10-41-25.xlsx
+++ b/CPU-Logging-Dashboard/Logging-Service/Logs/cpu_ram_rdp_log_2025-10-17_10-41-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1349"/>
+  <dimension ref="A1:E1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28756,6 +28756,6663 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:17</t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:22</t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:26</t>
+        </is>
+      </c>
+      <c r="B1352" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:30</t>
+        </is>
+      </c>
+      <c r="B1353" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:34</t>
+        </is>
+      </c>
+      <c r="B1354" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:38</t>
+        </is>
+      </c>
+      <c r="B1355" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:43</t>
+        </is>
+      </c>
+      <c r="B1356" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:47</t>
+        </is>
+      </c>
+      <c r="B1357" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:51</t>
+        </is>
+      </c>
+      <c r="B1358" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:55</t>
+        </is>
+      </c>
+      <c r="B1359" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:31:59</t>
+        </is>
+      </c>
+      <c r="B1360" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:03</t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:08</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:12</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:16</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:20</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:24</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:28</t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:33</t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:37</t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:41</t>
+        </is>
+      </c>
+      <c r="B1370" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:45</t>
+        </is>
+      </c>
+      <c r="B1371" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:49</t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:53</t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:32:58</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:02</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:06</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:10</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:14</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:18</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:23</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:27</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:31</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:35</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:39</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:43</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:48</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:52</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:33:56</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:00</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:04</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:09</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:13</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:17</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:21</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:25</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:29</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:33</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:38</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:42</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:46</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:50</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:54</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:34:58</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:03</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:07</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:11</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:15</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:19</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:23</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:28</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:32</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:36</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:40</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:44</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:48</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:52</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:54</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:57</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:35:59</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:01</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:03</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:05</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:07</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:09</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:12</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:14</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:16</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:18</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:20</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:22</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:25</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:27</t>
+        </is>
+      </c>
+      <c r="B1432" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:29</t>
+        </is>
+      </c>
+      <c r="B1433" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:31</t>
+        </is>
+      </c>
+      <c r="B1434" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:33</t>
+        </is>
+      </c>
+      <c r="B1435" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:35</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:38</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:40</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:42</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:44</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:46</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:48</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:50</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:53</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:55</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:57</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:36:59</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:01</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:03</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:06</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:08</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:10</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:12</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:14</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:16</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:19</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:21</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:23</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:25</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:27</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:29</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:31</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:34</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:36</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:38</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:40</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:42</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:44</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:47</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:49</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:51</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:53</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:55</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:37:57</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:00</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:02</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:04</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:06</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:08</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:10</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:12</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:15</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:17</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:19</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:21</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:23</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:25</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:28</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:30</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:32</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:34</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:36</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:38</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:41</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:43</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:45</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:47</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:49</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:51</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:54</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:56</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:38:58</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:00</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:02</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:04</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:07</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:09</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:11</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:13</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:15</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:17</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:20</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:22</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:24</t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:26</t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:28</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:30</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:33</t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:35</t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:37</t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:39</t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:41</t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:43</t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:46</t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:48</t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:50</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:52</t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:54</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:56</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:39:58</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:01</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:03</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:05</t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:07</t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:09</t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:11</t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:14</t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:16</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:18</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:20</t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:22</t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:24</t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:27</t>
+        </is>
+      </c>
+      <c r="B1543" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:29</t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:31</t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:33</t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:35</t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:37</t>
+        </is>
+      </c>
+      <c r="B1548" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:39</t>
+        </is>
+      </c>
+      <c r="B1549" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:42</t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:44</t>
+        </is>
+      </c>
+      <c r="B1551" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:46</t>
+        </is>
+      </c>
+      <c r="B1552" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:48</t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:50</t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:52</t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:55</t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:57</t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:40:59</t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:01</t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:03</t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:05</t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:08</t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:10</t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:12</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:14</t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:16</t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:18</t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:20</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:23</t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:25</t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:27</t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:29</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:31</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:33</t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:36</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:38</t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:40</t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:42</t>
+        </is>
+      </c>
+      <c r="B1578" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:44</t>
+        </is>
+      </c>
+      <c r="B1579" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:46</t>
+        </is>
+      </c>
+      <c r="B1580" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:49</t>
+        </is>
+      </c>
+      <c r="B1581" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:51</t>
+        </is>
+      </c>
+      <c r="B1582" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:53</t>
+        </is>
+      </c>
+      <c r="B1583" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:55</t>
+        </is>
+      </c>
+      <c r="B1584" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:57</t>
+        </is>
+      </c>
+      <c r="B1585" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:41:59</t>
+        </is>
+      </c>
+      <c r="B1586" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:01</t>
+        </is>
+      </c>
+      <c r="B1587" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:04</t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:06</t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:08</t>
+        </is>
+      </c>
+      <c r="B1590" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:10</t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:12</t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:14</t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:17</t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:19</t>
+        </is>
+      </c>
+      <c r="B1595" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:21</t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:23</t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:25</t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:27</t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:29</t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:32</t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:34</t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:36</t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:38</t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:40</t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:42</t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:45</t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:47</t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:49</t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:51</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:53</t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:55</t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:42:57</t>
+        </is>
+      </c>
+      <c r="B1613" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:00</t>
+        </is>
+      </c>
+      <c r="B1614" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:02</t>
+        </is>
+      </c>
+      <c r="B1615" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:04</t>
+        </is>
+      </c>
+      <c r="B1616" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:06</t>
+        </is>
+      </c>
+      <c r="B1617" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:08</t>
+        </is>
+      </c>
+      <c r="B1618" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:10</t>
+        </is>
+      </c>
+      <c r="B1619" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:13</t>
+        </is>
+      </c>
+      <c r="B1620" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:15</t>
+        </is>
+      </c>
+      <c r="B1621" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:17</t>
+        </is>
+      </c>
+      <c r="B1622" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:19</t>
+        </is>
+      </c>
+      <c r="B1623" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:21</t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:23</t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:26</t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:28</t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:30</t>
+        </is>
+      </c>
+      <c r="B1628" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:32</t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:34</t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:36</t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:38</t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:41</t>
+        </is>
+      </c>
+      <c r="B1633" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:43</t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:45</t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:47</t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:49</t>
+        </is>
+      </c>
+      <c r="B1637" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:51</t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:54</t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:56</t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:43:58</t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:00</t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:02</t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:04</t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:07</t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:09</t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:11</t>
+        </is>
+      </c>
+      <c r="B1647" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:13</t>
+        </is>
+      </c>
+      <c r="B1648" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:15</t>
+        </is>
+      </c>
+      <c r="B1649" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:17</t>
+        </is>
+      </c>
+      <c r="B1650" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:19</t>
+        </is>
+      </c>
+      <c r="B1651" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:22</t>
+        </is>
+      </c>
+      <c r="B1652" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:24</t>
+        </is>
+      </c>
+      <c r="B1653" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:26</t>
+        </is>
+      </c>
+      <c r="B1654" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:28</t>
+        </is>
+      </c>
+      <c r="B1655" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:30</t>
+        </is>
+      </c>
+      <c r="B1656" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:32</t>
+        </is>
+      </c>
+      <c r="B1657" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:35</t>
+        </is>
+      </c>
+      <c r="B1658" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:37</t>
+        </is>
+      </c>
+      <c r="B1659" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:39</t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:41</t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:43</t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:45</t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:47</t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:50</t>
+        </is>
+      </c>
+      <c r="B1665" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>65</v>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>2025-10-17 11:44:52</t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E1666" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
